--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AR2_50_6_matched_errors_first.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AR2_50_6_matched_errors_first.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Q0</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2020-07-01 00:00:00_diff</t>
@@ -455,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -515,25 +518,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>-15.94395950766804</v>
+        <v>9.006385916832064</v>
       </c>
       <c r="C3">
-        <v>-6.165405932306377</v>
+        <v>-8.778729625081095</v>
       </c>
       <c r="D3">
-        <v>-2.769606545071355</v>
+        <v>-0.3907511347594377</v>
       </c>
       <c r="E3">
-        <v>-5.259251564727762</v>
+        <v>1.872451415860664</v>
       </c>
       <c r="F3">
-        <v>-4.596813033215097</v>
+        <v>-1.508723736095618</v>
       </c>
       <c r="G3">
-        <v>-2.004406315493971</v>
+        <v>-1.540727864400714</v>
       </c>
       <c r="H3">
-        <v>-2.167512971069056</v>
+        <v>0.5152984556711749</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -541,25 +544,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>-4.485224785737152</v>
+        <v>-15.94395950766804</v>
       </c>
       <c r="C4">
-        <v>4.64643821743735</v>
+        <v>-6.165405932306377</v>
       </c>
       <c r="D4">
-        <v>-3.011195248502669</v>
+        <v>-2.769606545071355</v>
       </c>
       <c r="E4">
-        <v>-0.6154520180259231</v>
+        <v>-5.259251564727762</v>
       </c>
       <c r="F4">
-        <v>-0.02622441358399569</v>
+        <v>-4.596813033215097</v>
       </c>
       <c r="G4">
-        <v>0.2444932750012651</v>
+        <v>-2.004406315493971</v>
       </c>
       <c r="H4">
-        <v>-0.1624340797869752</v>
+        <v>-2.167512971069056</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -567,25 +570,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9192316907193552</v>
+        <v>-4.485224785737152</v>
       </c>
       <c r="C5">
-        <v>-1.148324593739046</v>
+        <v>4.64643821743735</v>
       </c>
       <c r="D5">
-        <v>-1.376360942196903</v>
+        <v>-3.011195248502669</v>
       </c>
       <c r="E5">
-        <v>0.5240065820382563</v>
+        <v>-0.6154520180259231</v>
       </c>
       <c r="F5">
-        <v>-0.0027599659219745</v>
+        <v>-0.02622441358399569</v>
       </c>
       <c r="G5">
-        <v>0.09815006083404601</v>
+        <v>0.2444932750012651</v>
       </c>
       <c r="H5">
-        <v>-0.1708892827759409</v>
+        <v>-0.1624340797869752</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -593,25 +596,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.740092140117276</v>
+        <v>0.9192316907193552</v>
       </c>
       <c r="C6">
-        <v>-1.124737898310509</v>
+        <v>-1.148324593739046</v>
       </c>
       <c r="D6">
-        <v>0.442100528215121</v>
+        <v>-1.376360942196903</v>
       </c>
       <c r="E6">
-        <v>0.07233208345931114</v>
+        <v>0.5240065820382563</v>
       </c>
       <c r="F6">
-        <v>0.2040572213477698</v>
+        <v>-0.0027599659219745</v>
       </c>
       <c r="G6">
-        <v>-0.1124726366172855</v>
+        <v>0.09815006083404601</v>
       </c>
       <c r="H6">
-        <v>0.7323796385135606</v>
+        <v>-0.1708892827759409</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -619,25 +622,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>-1.230237110159324</v>
+        <v>-0.740092140117276</v>
       </c>
       <c r="C7">
-        <v>0.3159952442497632</v>
+        <v>-1.124737898310509</v>
       </c>
       <c r="D7">
-        <v>0.2405801520925428</v>
+        <v>0.442100528215121</v>
       </c>
       <c r="E7">
-        <v>0.2647213139516521</v>
+        <v>0.07233208345931114</v>
       </c>
       <c r="F7">
-        <v>-0.1013397972426526</v>
+        <v>0.2040572213477698</v>
       </c>
       <c r="G7">
-        <v>0.7952423898404911</v>
+        <v>-0.1124726366172855</v>
       </c>
       <c r="H7">
-        <v>0.6987028198275607</v>
+        <v>0.7323796385135606</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -645,25 +648,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.2884453755979755</v>
+        <v>-1.230237110159324</v>
       </c>
       <c r="C8">
-        <v>0.1763767747378494</v>
+        <v>0.3159952442497632</v>
       </c>
       <c r="D8">
-        <v>0.5562686220088688</v>
+        <v>0.2405801520925428</v>
       </c>
       <c r="E8">
-        <v>-0.1390466733285862</v>
+        <v>0.2647213139516521</v>
       </c>
       <c r="F8">
-        <v>0.78665836976703</v>
+        <v>-0.1013397972426526</v>
       </c>
       <c r="G8">
-        <v>0.7824438974249289</v>
+        <v>0.7952423898404911</v>
       </c>
       <c r="H8">
-        <v>0.3621534170608979</v>
+        <v>0.6987028198275607</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -671,25 +674,25 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.08873594589893813</v>
+        <v>-0.2884453755979755</v>
       </c>
       <c r="C9">
-        <v>0.5038494199792003</v>
+        <v>0.1763767747378494</v>
       </c>
       <c r="D9">
-        <v>-0.0804002763435806</v>
+        <v>0.5562686220088688</v>
       </c>
       <c r="E9">
-        <v>0.7915875151041314</v>
+        <v>-0.1390466733285862</v>
       </c>
       <c r="F9">
-        <v>0.7713506143760337</v>
+        <v>0.78665836976703</v>
       </c>
       <c r="G9">
-        <v>0.3749201162859844</v>
+        <v>0.7824438974249289</v>
       </c>
       <c r="H9">
-        <v>0.5168869453501342</v>
+        <v>0.3621534170608979</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -697,25 +700,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.526277399612209</v>
+        <v>0.08873594589893813</v>
       </c>
       <c r="C10">
-        <v>-0.07779673678113191</v>
+        <v>0.5038494199792003</v>
       </c>
       <c r="D10">
-        <v>0.7695198294501161</v>
+        <v>-0.0804002763435806</v>
       </c>
       <c r="E10">
-        <v>0.7653686340716788</v>
+        <v>0.7915875151041314</v>
       </c>
       <c r="F10">
-        <v>0.3695768661035733</v>
+        <v>0.7713506143760337</v>
       </c>
       <c r="G10">
-        <v>0.506518411979768</v>
+        <v>0.3749201162859844</v>
       </c>
       <c r="H10">
-        <v>0.68078502295568</v>
+        <v>0.5168869453501342</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -723,25 +726,25 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.05637216532391182</v>
+        <v>0.526277399612209</v>
       </c>
       <c r="C11">
-        <v>0.8896976782493284</v>
+        <v>-0.07779673678113191</v>
       </c>
       <c r="D11">
-        <v>0.6761742896578956</v>
+        <v>0.7695198294501161</v>
       </c>
       <c r="E11">
-        <v>0.3398498622549955</v>
+        <v>0.7653686340716788</v>
       </c>
       <c r="F11">
-        <v>0.5151445320096781</v>
+        <v>0.3695768661035733</v>
       </c>
       <c r="G11">
-        <v>0.6548448495302448</v>
+        <v>0.506518411979768</v>
       </c>
       <c r="H11">
-        <v>0.153883110993772</v>
+        <v>0.68078502295568</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -749,25 +752,25 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.847377045928939</v>
+        <v>-0.05637216532391182</v>
       </c>
       <c r="C12">
-        <v>0.6469698158021624</v>
+        <v>0.8896976782493284</v>
       </c>
       <c r="D12">
-        <v>0.3368292624500743</v>
+        <v>0.6761742896578956</v>
       </c>
       <c r="E12">
-        <v>0.4962832483981977</v>
+        <v>0.3398498622549955</v>
       </c>
       <c r="F12">
-        <v>0.6345137184650405</v>
+        <v>0.5151445320096781</v>
       </c>
       <c r="G12">
-        <v>0.1393529555595242</v>
+        <v>0.6548448495302448</v>
       </c>
       <c r="H12">
-        <v>0.4232232413106087</v>
+        <v>0.153883110993772</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -775,25 +778,25 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.9871675564200725</v>
+        <v>0.847377045928939</v>
       </c>
       <c r="C13">
-        <v>0.4122003242340114</v>
+        <v>0.6469698158021624</v>
       </c>
       <c r="D13">
-        <v>0.3051899620851986</v>
+        <v>0.3368292624500743</v>
       </c>
       <c r="E13">
-        <v>0.6592076310517737</v>
+        <v>0.4962832483981977</v>
       </c>
       <c r="F13">
-        <v>0.1487323591158202</v>
+        <v>0.6345137184650405</v>
       </c>
       <c r="G13">
-        <v>0.3684124426992176</v>
+        <v>0.1393529555595242</v>
       </c>
       <c r="H13">
-        <v>0.2289444034306267</v>
+        <v>0.4232232413106087</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -801,25 +804,25 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.862895196224262</v>
+        <v>0.9871675564200725</v>
       </c>
       <c r="C14">
-        <v>0.352300664297557</v>
+        <v>0.4122003242340114</v>
       </c>
       <c r="D14">
-        <v>0.4189244002609654</v>
+        <v>0.3051899620851986</v>
       </c>
       <c r="E14">
-        <v>0.184677440181683</v>
+        <v>0.6592076310517737</v>
       </c>
       <c r="F14">
-        <v>0.3663616852596248</v>
+        <v>0.1487323591158202</v>
       </c>
       <c r="G14">
-        <v>0.1523761639945965</v>
+        <v>0.3684124426992176</v>
       </c>
       <c r="H14">
-        <v>0.511932666264689</v>
+        <v>0.2289444034306267</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -827,25 +830,25 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6646262512210954</v>
+        <v>0.862895196224262</v>
       </c>
       <c r="C15">
-        <v>0.5522131399964898</v>
+        <v>0.352300664297557</v>
       </c>
       <c r="D15">
-        <v>0.005599018365491398</v>
+        <v>0.4189244002609654</v>
       </c>
       <c r="E15">
-        <v>0.394555924030192</v>
+        <v>0.184677440181683</v>
       </c>
       <c r="F15">
-        <v>0.18840147518699</v>
+        <v>0.3663616852596248</v>
       </c>
       <c r="G15">
-        <v>0.4743910960604755</v>
+        <v>0.1523761639945965</v>
       </c>
       <c r="H15">
-        <v>-0.1178263863585594</v>
+        <v>0.511932666264689</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -853,117 +856,143 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.787803631104331</v>
+        <v>0.6646262512210954</v>
       </c>
       <c r="C16">
-        <v>0.09027775923980097</v>
+        <v>0.5522131399964898</v>
       </c>
       <c r="D16">
-        <v>0.2489555573964748</v>
+        <v>0.005599018365491398</v>
       </c>
       <c r="E16">
-        <v>0.1983552180462326</v>
+        <v>0.394555924030192</v>
       </c>
       <c r="F16">
-        <v>0.4897562657600204</v>
+        <v>0.18840147518699</v>
       </c>
       <c r="G16">
-        <v>-0.1566747213159825</v>
+        <v>0.4743910960604755</v>
       </c>
       <c r="H16">
-        <v>0.5520662240532093</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.1178263863585594</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4013019457211838</v>
+        <v>0.787803631104331</v>
       </c>
       <c r="C17">
-        <v>0.36604433180767</v>
+        <v>0.09027775923980097</v>
       </c>
       <c r="D17">
-        <v>0.03589107659666579</v>
+        <v>0.2489555573964748</v>
       </c>
       <c r="E17">
-        <v>0.518715216225222</v>
+        <v>0.1983552180462326</v>
       </c>
       <c r="F17">
-        <v>-0.1209318488610789</v>
+        <v>0.4897562657600204</v>
       </c>
       <c r="G17">
-        <v>0.5207385776695821</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>-0.1566747213159825</v>
+      </c>
+      <c r="H17">
+        <v>0.5520662240532093</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6128695092117844</v>
+        <v>0.4013019457211838</v>
       </c>
       <c r="C18">
-        <v>0.0535469441345553</v>
+        <v>0.36604433180767</v>
       </c>
       <c r="D18">
-        <v>0.4240929771142275</v>
+        <v>0.03589107659666579</v>
       </c>
       <c r="E18">
-        <v>-0.0887144606125988</v>
+        <v>0.518715216225222</v>
       </c>
       <c r="F18">
-        <v>0.5331267034972994</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>-0.1209318488610789</v>
+      </c>
+      <c r="G18">
+        <v>0.5207385776695821</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2932233035507672</v>
+        <v>0.6128695092117844</v>
       </c>
       <c r="C19">
-        <v>0.509117220583441</v>
+        <v>0.0535469441345553</v>
       </c>
       <c r="D19">
-        <v>-0.2051990389706129</v>
+        <v>0.4240929771142275</v>
       </c>
       <c r="E19">
-        <v>0.5482319751491519</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.0887144606125988</v>
+      </c>
+      <c r="F19">
+        <v>0.5331267034972994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6739772976175282</v>
+        <v>0.2932233035507672</v>
       </c>
       <c r="C20">
-        <v>-0.1916617667226967</v>
+        <v>0.509117220583441</v>
       </c>
       <c r="D20">
-        <v>0.4852590561591889</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.2051990389706129</v>
+      </c>
+      <c r="E20">
+        <v>0.5482319751491519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.06218727514271133</v>
+        <v>0.6739772976175282</v>
       </c>
       <c r="C21">
-        <v>0.5845771063412253</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.1916617667226967</v>
+      </c>
+      <c r="D21">
+        <v>0.4852590561591889</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B22">
+        <v>0.06218727514271133</v>
+      </c>
+      <c r="C22">
+        <v>0.5845771063412253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
         <v>0.6286367975806744</v>
       </c>
     </row>
